--- a/team_specific_matrix/Stanislaus St._A.xlsx
+++ b/team_specific_matrix/Stanislaus St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
-        <v>0.2857142857142857</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1428571428571428</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.25</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.25</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="R8">
-        <v>0.2</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S8">
-        <v>0.2</v>
+        <v>0.5428571428571428</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0625</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02083333333333333</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0625</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0625</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.04166666666666666</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="R10">
-        <v>0.02083333333333333</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="S10">
-        <v>0.4791666666666667</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1428571428571428</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K11">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L11">
-        <v>0.5714285714285714</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.06666666666666667</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I15">
-        <v>0.06666666666666667</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J15">
-        <v>0.4666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.06666666666666667</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06666666666666667</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.06666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I16">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J16">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1357,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07692307692307693</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="I17">
-        <v>0.1538461538461539</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J17">
-        <v>0.6923076923076923</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07692307692307693</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1475,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1818181818181818</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="I19">
-        <v>0.09090909090909091</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="J19">
-        <v>0.4090909090909091</v>
+        <v>0.2966101694915254</v>
       </c>
       <c r="K19">
-        <v>0.04545454545454546</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.04545454545454546</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="O19">
-        <v>0.1818181818181818</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.04545454545454546</v>
+        <v>0.1186440677966102</v>
       </c>
     </row>
   </sheetData>
